--- a/src/static/template_bill.xlsx
+++ b/src/static/template_bill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai project\chatboaii\placeodorigin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai project\global-uk-tariffv1\src\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D20C0601-25E5-49B8-9C73-5DE0ADD8E045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53466A0-4D60-4802-8589-0D10B3D092D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3730AF7A-08E0-4C66-842E-796FD903936F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Item Number</t>
   </si>
@@ -54,13 +54,49 @@
   </si>
   <si>
     <t>Commodity Code</t>
+  </si>
+  <si>
+    <t>Keypad</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Tochpad</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>LCD Monitor</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>Swedan</t>
+  </si>
+  <si>
+    <t>Processing Unit</t>
+  </si>
+  <si>
+    <t>PLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland </t>
+  </si>
+  <si>
+    <t>***This is example data only. Please input your original data row by row from row 2, ensuring that currency codes (e.g., USD, PLN, etc.) are used accurately for each currency field.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +111,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B0C0C"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0B0C0C"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,9 +146,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C62D57-97A7-42F0-ACA8-9DD28272AB96}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,6 +513,91 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>84716060</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <v>84716070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>250</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>85285299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3">
+        <v>84715000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/static/template_bill.xlsx
+++ b/src/static/template_bill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai project\global-uk-tariffv1\src\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53466A0-4D60-4802-8589-0D10B3D092D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A2CED6-F7B5-4C6F-882F-50A74A8BC12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3730AF7A-08E0-4C66-842E-796FD903936F}"/>
   </bookViews>
@@ -77,19 +77,19 @@
     <t>SEK</t>
   </si>
   <si>
-    <t>Swedan</t>
-  </si>
-  <si>
     <t>Processing Unit</t>
   </si>
   <si>
     <t>PLN</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland </t>
-  </si>
-  <si>
     <t>***This is example data only. Please input your original data row by row from row 2, ensuring that currency codes (e.g., USD, PLN, etc.) are used accurately for each currency field.</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F5" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>84716060</v>
@@ -547,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2">
         <v>84716070</v>
@@ -567,7 +567,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>85285299</v>
@@ -578,16 +578,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>500</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3">
         <v>84715000</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/template_bill.xlsx
+++ b/src/static/template_bill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai project\global-uk-tariffv1\src\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A2CED6-F7B5-4C6F-882F-50A74A8BC12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AFAF10-74FF-42B1-B55C-0DAE9E8FD329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3730AF7A-08E0-4C66-842E-796FD903936F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Item Number</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Germany</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>***Weight Column is Optional (Enter in Kilo Grams like 20)</t>
   </si>
 </sst>
 </file>
@@ -485,15 +491,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C62D57-97A7-42F0-ACA8-9DD28272AB96}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="F5" sqref="A2:F5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,8 +518,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -533,7 +542,7 @@
         <v>84716060</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -553,7 +562,7 @@
         <v>84716070</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -573,7 +582,7 @@
         <v>85285299</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -593,9 +602,14 @@
         <v>84715000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
